--- a/database/draft.xlsx
+++ b/database/draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben10pedrin/Documents/Code/laika/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421D189F-8544-7E4C-8F8D-D0D759526BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB2A60B-0A36-C34A-BF89-AFF6AA61E34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{B3EF4E22-3678-094E-B4AF-F737223A1624}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>ref puppy</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Detectado Cachorros</t>
+  </si>
+  <si>
+    <t>Detectado Anemia</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC2E062-78DD-7B46-A3ED-8FF9E7B8558A}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="184" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,40 +972,48 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
         <v>44</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>37</v>
       </c>
     </row>
